--- a/2018_CCSB_LoadsData_WY2010-2017/Sites/Outflow_11452900/4_wy2016-2018/4_rloadest/4_pMeHg/4_Excel for Text Files/pMeHg_OutflowR.xlsx
+++ b/2018_CCSB_LoadsData_WY2010-2017/Sites/Outflow_11452900/4_wy2016-2018/4_rloadest/4_pMeHg/4_Excel for Text Files/pMeHg_OutflowR.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slrose\R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slrose\R\2018_CCSB_LoadsData_WY2010-2017\Sites\Outflow_11452900\4_wy2016-2018\4_rloadest\4_pMeHg\4_Excel for Text Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB5A32CF-6732-4B50-90E7-397C9771C572}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97988BE8-5902-410E-B7FC-3F9557A79AE1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A854D145-67FC-4D3C-91F1-638269F83F64}"/>
   </bookViews>
   <sheets>
-    <sheet name="4_pMeHg" sheetId="1" r:id="rId1"/>
+    <sheet name="4_pMeHg_cens" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Dates</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Flow</t>
-  </si>
-  <si>
-    <t>pMeHg</t>
   </si>
   <si>
     <t>10d</t>
@@ -55,6 +52,15 @@
   </si>
   <si>
     <t>14:20</t>
+  </si>
+  <si>
+    <t>PpMeHg</t>
+  </si>
+  <si>
+    <t>2s</t>
+  </si>
+  <si>
+    <t>&lt;</t>
   </si>
 </sst>
 </file>
@@ -83,7 +89,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -111,12 +117,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,7 +440,7 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
@@ -445,7 +451,7 @@
     <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,24 +462,30 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>42389</v>
       </c>
@@ -487,7 +499,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>42392</v>
       </c>
@@ -497,11 +509,14 @@
       <c r="C4" s="4">
         <v>56.1</v>
       </c>
-      <c r="D4" s="6">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>42393</v>
       </c>
@@ -511,11 +526,14 @@
       <c r="C5" s="4">
         <v>55</v>
       </c>
-      <c r="D5" s="6">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>42402</v>
       </c>
@@ -529,7 +547,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>42403</v>
       </c>
@@ -543,7 +561,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>42404</v>
       </c>
@@ -557,7 +575,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>42436</v>
       </c>
@@ -571,12 +589,12 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>42437</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="4">
         <v>551</v>
@@ -585,7 +603,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>42438</v>
       </c>
@@ -599,7 +617,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>42439</v>
       </c>
@@ -613,7 +631,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>42441</v>
       </c>
@@ -627,7 +645,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>42442</v>
       </c>
@@ -641,7 +659,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>42443</v>
       </c>
@@ -655,7 +673,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>42444</v>
       </c>
@@ -768,7 +786,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>42746</v>
       </c>
       <c r="B24" s="3">
@@ -782,7 +800,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>42767</v>
       </c>
       <c r="B25" s="3">
@@ -796,7 +814,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>42774</v>
       </c>
       <c r="B26" s="3">
@@ -810,7 +828,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>42776</v>
       </c>
       <c r="B27" s="3">
@@ -824,7 +842,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>42787</v>
       </c>
       <c r="B28" s="3">
@@ -838,7 +856,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>42810</v>
       </c>
       <c r="B29" s="3">
@@ -852,7 +870,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>42829</v>
       </c>
       <c r="B30" s="3">
@@ -866,7 +884,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>42851</v>
       </c>
       <c r="B31" s="3">
@@ -883,13 +901,13 @@
       <c r="A32" s="1">
         <v>43181</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="7">
         <v>0.4375</v>
       </c>
       <c r="C32">
         <v>86.2</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <v>0.13</v>
       </c>
     </row>
@@ -897,13 +915,13 @@
       <c r="A33" s="1">
         <v>43198</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>0.53472222222222221</v>
       </c>
       <c r="C33">
         <v>350</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>0.27</v>
       </c>
     </row>
